--- a/biology/Neurosciences/Péricaryon/Péricaryon.xlsx
+++ b/biology/Neurosciences/Péricaryon/Péricaryon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9ricaryon</t>
+          <t>Péricaryon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le péricaryon, aussi appelé soma, est le cytoplasme du corps cellulaire du neurone. Le mot signifie en grec « autour du noyau ». Depuis le corps cellulaire du neurone émergent les autres structures morphologiques caractéristiques des neurones : les dendrites et l'axone.
 Le péricaryon peut avoir, selon le type de cellule nerveuse, différentes formes, qui ont souvent donné leur nom aux catégories de neurones. C'est notamment le cas pour les cellules pyramidales dont le péricaryon a une forme triangulaire typique.
